--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
@@ -2426,468 +2426,468 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Advanced</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RTH</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Recovered</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>RTH</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>returning</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Transmission</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Recovered</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>5</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>6</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>returning</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -11417,59 +11417,59 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/word_level_predictions_17.xlsx
@@ -2426,468 +2426,468 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Advanced</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="D40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Recovered</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>returning</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>returning</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,83 +11393,83 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Info:</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Info:</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
